--- a/Sep19/pos_prof/Tables/income-M.xlsx
+++ b/Sep19/pos_prof/Tables/income-M.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -425,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -471,10 +477,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.2147588053950578</v>
@@ -489,33 +501,39 @@
         <v>1067562711.75</v>
       </c>
       <c r="F2">
+        <v>14106286460237.92</v>
+      </c>
+      <c r="G2">
+        <v>1155021202746.413</v>
+      </c>
+      <c r="H2">
         <v>109256534237.8746</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>86444510968.32513</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>119004546598.8829</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>103679246738.649</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>14679882876.67941</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>11614822904.63258</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>73399414383.39665</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>58074114523.16274</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2.296491669346442</v>
@@ -530,33 +548,39 @@
         <v>40832282.75</v>
       </c>
       <c r="F3">
+        <v>3207987015.574299</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>10942191.21788897</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>16763402.30746983</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>16311617.76340888</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>20222353.97665087</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>1470210.33216296</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>2252357.574811357</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>7351051.660814797</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>11261787.87405678</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.3894581041516433</v>
@@ -571,33 +595,39 @@
         <v>2683451842.25</v>
       </c>
       <c r="F4">
+        <v>734615892234.8064</v>
+      </c>
+      <c r="G4">
+        <v>88889835996.30263</v>
+      </c>
+      <c r="H4">
         <v>-6550778990.588892</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>30749260587.72594</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-3745031289.640597</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>21313433914.50961</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>-880173153.9780107</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>4131519886.85203</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-4400865769.890053</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>20657599434.26016</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.04210160584805436</v>
@@ -612,33 +642,39 @@
         <v>88329342</v>
       </c>
       <c r="F5">
+        <v>558865056646.082</v>
+      </c>
+      <c r="G5">
+        <v>72600947639.16805</v>
+      </c>
+      <c r="H5">
         <v>-176232141209.7981</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-235482743032.8355</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-184996495571.0461</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-224801524222.295</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-23678832667.65222</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-31639838397.902</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>-118394163338.2611</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-158199191989.5101</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.38480040209338</v>
@@ -650,30 +686,36 @@
         <v>19503318000000</v>
       </c>
       <c r="E6">
-        <v>2425431669.75</v>
+        <v>2427884184.75</v>
       </c>
       <c r="F6">
+        <v>4579473077980.816</v>
+      </c>
+      <c r="G6">
+        <v>674619880691.7614</v>
+      </c>
+      <c r="H6">
         <v>23814184874.38327</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>81084897338.28873</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>22257392215.29668</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>60732315344.54725</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>3199712009.886794</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>10894696635.73691</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>15998560049.43396</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>54473483178.68454</v>
       </c>
     </row>
